--- a/src/core/data/jobs copy.xlsx
+++ b/src/core/data/jobs copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyethm/Documents/GR/SchedulingAlgorithm/src/core/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B476742-89E6-864C-8788-59A721C1CA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199555C-CF62-F244-9BB2-3BD91A2F8F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="13880" windowHeight="17500" xr2:uid="{0C526DC0-E2A5-6241-B329-293477F8393B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC596FC-20EA-724B-8236-FA6E53C02BBE}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,6 +733,292 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C2+7</f>
+        <v>44522.75</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D2+7</f>
+        <v>44522.833333333336</v>
+      </c>
+      <c r="E15" s="2">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:D16" si="0">C3+7</f>
+        <v>44523.75</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>44523.833333333336</v>
+      </c>
+      <c r="E16" s="2">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:D17" si="1">C4+7</f>
+        <v>44525.75</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>44525.833333333336</v>
+      </c>
+      <c r="E17" s="2">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:D18" si="2">C5+7</f>
+        <v>44523.28125</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>44523.34375</v>
+      </c>
+      <c r="E18" s="2">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:D19" si="3">C6+7</f>
+        <v>44523.350694444445</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>44523.489583333336</v>
+      </c>
+      <c r="E19" s="2">
+        <v>200</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:D20" si="4">C7+7</f>
+        <v>44524.28125</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>44524.34375</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:D21" si="5">C8+7</f>
+        <v>44524.427083333336</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>44524.489583333336</v>
+      </c>
+      <c r="E21" s="2">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:D22" si="6">C9+7</f>
+        <v>44522.875</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>44522.958333333336</v>
+      </c>
+      <c r="E22" s="2">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:D23" si="7">C10+7</f>
+        <v>44524.854166666664</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="7"/>
+        <v>44524.958333333336</v>
+      </c>
+      <c r="E23" s="2">
+        <v>150</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:D24" si="8">C11+7</f>
+        <v>44522.333333333336</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="8"/>
+        <v>44522.875</v>
+      </c>
+      <c r="E24" s="2">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:D25" si="9">C12+7</f>
+        <v>44522.333333333336</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="9"/>
+        <v>44524.28125</v>
+      </c>
+      <c r="E25" s="2">
+        <v>420</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:D26" si="10">C13+7</f>
+        <v>44522.333333333336</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="10"/>
+        <v>44526.708333333336</v>
+      </c>
+      <c r="E26" s="2">
+        <v>930</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:D27" si="11">C14+7</f>
+        <v>44522.333333333336</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="11"/>
+        <v>44526.708333333336</v>
+      </c>
+      <c r="E27" s="2">
+        <v>840</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/core/data/jobs copy.xlsx
+++ b/src/core/data/jobs copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyethm/Documents/GR/SchedulingAlgorithm/src/core/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199555C-CF62-F244-9BB2-3BD91A2F8F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3F32B-A2FA-3641-867C-7154B664B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="13880" windowHeight="17500" xr2:uid="{0C526DC0-E2A5-6241-B329-293477F8393B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0C526DC0-E2A5-6241-B329-293477F8393B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Thuật toán GR</t>
   </si>
   <si>
-    <t>Knowledge Engineering Project</t>
-  </si>
-  <si>
     <t>estimated_time</t>
   </si>
   <si>
@@ -84,6 +81,21 @@
   </si>
   <si>
     <t>flextime</t>
+  </si>
+  <si>
+    <t>Data test</t>
+  </si>
+  <si>
+    <t>Màn hình công việc</t>
+  </si>
+  <si>
+    <t>Màn hình lịch trình</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình công việc</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình lịch trình</t>
   </si>
 </sst>
 </file>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC596FC-20EA-724B-8236-FA6E53C02BBE}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +465,7 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,21 +473,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -493,9 +505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -513,9 +525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -533,9 +545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -553,9 +565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -572,10 +584,14 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <f>SUM(E2:E19)</f>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -593,9 +609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -613,9 +629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -633,9 +649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -653,9 +669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -672,10 +688,13 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -687,15 +706,15 @@
         <v>44517.28125</v>
       </c>
       <c r="E12" s="2">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -707,18 +726,18 @@
         <v>44519.708333333336</v>
       </c>
       <c r="E13" s="2">
-        <v>930</v>
+        <v>840</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>44515.333333333336</v>
@@ -727,297 +746,127 @@
         <v>44519.708333333336</v>
       </c>
       <c r="E14" s="2">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f>C2+7</f>
-        <v>44522.75</v>
+        <v>44515.333333333336</v>
       </c>
       <c r="D15" s="1">
-        <f>D2+7</f>
-        <v>44522.833333333336</v>
+        <v>44519.708333333336</v>
       </c>
       <c r="E15" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:D16" si="0">C3+7</f>
-        <v>44523.75</v>
+        <v>44515.333333333336</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>44523.833333333336</v>
+        <v>44519.708333333336</v>
       </c>
       <c r="E16" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:D17" si="1">C4+7</f>
-        <v>44525.75</v>
+        <v>44515.333333333336</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>44525.833333333336</v>
+        <v>44519.708333333336</v>
       </c>
       <c r="E17" s="2">
         <v>120</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:D18" si="2">C5+7</f>
-        <v>44523.28125</v>
+        <v>44515.333333333336</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>44523.34375</v>
+        <v>44519.708333333336</v>
       </c>
       <c r="E18" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="3">C6+7</f>
-        <v>44523.350694444445</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>44523.489583333336</v>
-      </c>
-      <c r="E19" s="2">
-        <v>200</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:D20" si="4">C7+7</f>
-        <v>44524.28125</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="4"/>
-        <v>44524.34375</v>
-      </c>
-      <c r="E20" s="2">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" ref="C21:D21" si="5">C8+7</f>
-        <v>44524.427083333336</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="5"/>
-        <v>44524.489583333336</v>
-      </c>
-      <c r="E21" s="2">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:D22" si="6">C9+7</f>
-        <v>44522.875</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>44522.958333333336</v>
-      </c>
-      <c r="E22" s="2">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:D23" si="7">C10+7</f>
-        <v>44524.854166666664</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="7"/>
-        <v>44524.958333333336</v>
-      </c>
-      <c r="E23" s="2">
-        <v>150</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" ref="C24:D24" si="8">C11+7</f>
-        <v>44522.333333333336</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="8"/>
-        <v>44522.875</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" ref="C25:D25" si="9">C12+7</f>
-        <v>44522.333333333336</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="9"/>
-        <v>44524.28125</v>
-      </c>
-      <c r="E25" s="2">
-        <v>420</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" ref="C26:D26" si="10">C13+7</f>
-        <v>44522.333333333336</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="10"/>
-        <v>44526.708333333336</v>
-      </c>
-      <c r="E26" s="2">
-        <v>930</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" ref="C27:D27" si="11">C14+7</f>
-        <v>44522.333333333336</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="11"/>
-        <v>44526.708333333336</v>
-      </c>
-      <c r="E27" s="2">
-        <v>840</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
